--- a/BaseCore/doc/자전거뒷휠텐션.xlsx
+++ b/BaseCore/doc/자전거뒷휠텐션.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishingday\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishingday\git\BaseCore\BaseCore\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>드라이브</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -380,7 +380,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -390,8 +390,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,8 +410,17 @@
       <c r="C2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -412,8 +430,17 @@
       <c r="C3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -423,8 +450,17 @@
       <c r="C4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -434,8 +470,17 @@
       <c r="C5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -445,8 +490,17 @@
       <c r="C6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -456,8 +510,17 @@
       <c r="C7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -467,8 +530,17 @@
       <c r="C8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -478,8 +550,17 @@
       <c r="C9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -489,8 +570,17 @@
       <c r="C10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -500,8 +590,17 @@
       <c r="C11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -511,8 +610,17 @@
       <c r="C12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -522,8 +630,17 @@
       <c r="C13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -531,6 +648,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>